--- a/sentiment/weekly/20250224-20250228.xlsx
+++ b/sentiment/weekly/20250224-20250228.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\data\project\2025\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EC7DE1-5445-42DA-A540-E373C4BAEECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B692B1-4217-49A0-A1EF-FF2089D3C066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,10 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杭钢股份 B2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杭钢股份 16天12板2连板;
 杭齿前进 11天9板;
 浙江众成 6天5板;</t>
@@ -496,6 +492,12 @@
   </si>
   <si>
     <t>房地产概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新时达 6连板;
+泰豪科技 9天6板4连板;
+云赛智联 7天5板2连板;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,10 +851,10 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -889,19 +891,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="112" x14ac:dyDescent="0.25">
@@ -915,13 +917,13 @@
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42" x14ac:dyDescent="0.25">
@@ -954,10 +956,10 @@
         <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.25">
@@ -993,13 +995,13 @@
         <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28" x14ac:dyDescent="0.25">
@@ -1051,10 +1053,10 @@
         <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28" x14ac:dyDescent="0.25">
@@ -1084,7 +1086,7 @@
         <v>42</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1105,7 +1107,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
@@ -1113,23 +1115,23 @@
     </row>
     <row r="21" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="70" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
         <v>40</v>
@@ -1138,47 +1140,47 @@
         <v>33</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>48</v>
@@ -1186,34 +1188,34 @@
     </row>
     <row r="29" spans="1:6" ht="56" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="F29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" t="s">
         <v>79</v>
-      </c>
-      <c r="E31" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E32" t="s">
         <v>40</v>
@@ -1221,7 +1223,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
         <v>40</v>
@@ -1229,7 +1231,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E34" t="s">
         <v>40</v>
@@ -1237,15 +1239,15 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" t="s">
         <v>91</v>
-      </c>
-      <c r="F35" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" t="s">
         <v>40</v>
@@ -1253,7 +1255,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F37" t="s">
         <v>40</v>
@@ -1261,7 +1263,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
@@ -1269,7 +1271,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F39" t="s">
         <v>43</v>
